--- a/docs/REQUISITOS_FUNCIONAIS.xlsx
+++ b/docs/REQUISITOS_FUNCIONAIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI\2DES\PWFE\ESTACIONAMENTO\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Estacionamento\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA69F1-712D-4FB4-9AF7-343BF477D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACD7F6-2EE0-468E-B5D7-A19C27D21FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6996C888-12EA-43C7-AFD7-5442CC0A9610}"/>
+    <workbookView xWindow="9615" yWindow="1560" windowWidth="15360" windowHeight="11385" xr2:uid="{6996C888-12EA-43C7-AFD7-5442CC0A9610}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Requisito</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Botão para encerrar uso da vaga, registrando horário, e pedindo confirmação do encerramento</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -406,6 +409,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -415,34 +445,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE97B18F-F46A-4E5D-A41A-8A07E6DF7891}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,45 +777,48 @@
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -819,12 +827,15 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="F5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -833,12 +844,15 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="F6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -847,12 +861,15 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -861,15 +878,18 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="G8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -878,12 +898,15 @@
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -892,12 +915,15 @@
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -906,12 +932,12 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -920,12 +946,12 @@
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -934,21 +960,21 @@
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/REQUISITOS_FUNCIONAIS.xlsx
+++ b/docs/REQUISITOS_FUNCIONAIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Estacionamento\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACD7F6-2EE0-468E-B5D7-A19C27D21FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C437606-DE4E-428A-9265-88850B5B94F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="1560" windowWidth="15360" windowHeight="11385" xr2:uid="{6996C888-12EA-43C7-AFD7-5442CC0A9610}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6996C888-12EA-43C7-AFD7-5442CC0A9610}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Requisito</t>
   </si>
@@ -155,16 +155,10 @@
     <t>ESTACIONAMENTO</t>
   </si>
   <si>
-    <t>abbr</t>
-  </si>
-  <si>
     <t>Ao clicar na vaga disponível abre tela de "modal" que pede a placa do veículo e insere os dados do cliente com horário de registro da vaga ao finalizar.</t>
   </si>
   <si>
     <t>Botão para encerrar uso da vaga, registrando horário, e pedindo confirmação do encerramento</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,15 +755,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE97B18F-F46A-4E5D-A41A-8A07E6DF7891}">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -813,9 +804,7 @@
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -830,9 +819,7 @@
       <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -847,9 +834,7 @@
       <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -859,14 +844,12 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -881,12 +864,7 @@
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -901,9 +879,7 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -913,14 +889,12 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -933,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -947,7 +921,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -961,7 +935,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
